--- a/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
+++ b/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
   <si>
     <t>Serie</t>
   </si>
@@ -1418,6 +1418,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11026,19 +11029,39 @@
         <v>467</v>
       </c>
       <c r="B463">
-        <v>194662</v>
+        <v>194676</v>
       </c>
       <c r="C463">
-        <v>107990</v>
+        <v>108024</v>
       </c>
       <c r="D463">
-        <v>16915</v>
+        <v>16917</v>
       </c>
       <c r="E463">
         <v>61064</v>
       </c>
       <c r="F463">
-        <v>8693</v>
+        <v>8672</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>468</v>
+      </c>
+      <c r="B464">
+        <v>197713</v>
+      </c>
+      <c r="C464">
+        <v>109956</v>
+      </c>
+      <c r="D464">
+        <v>16925</v>
+      </c>
+      <c r="E464">
+        <v>61498</v>
+      </c>
+      <c r="F464">
+        <v>9334</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
+++ b/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <si>
     <t>Serie</t>
   </si>
@@ -1421,6 +1421,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F464"/>
+  <dimension ref="A1:F465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11049,19 +11052,39 @@
         <v>468</v>
       </c>
       <c r="B464">
-        <v>197713</v>
+        <v>197863</v>
       </c>
       <c r="C464">
-        <v>109956</v>
+        <v>110102</v>
       </c>
       <c r="D464">
-        <v>16925</v>
+        <v>16926</v>
       </c>
       <c r="E464">
         <v>61498</v>
       </c>
       <c r="F464">
-        <v>9334</v>
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>469</v>
+      </c>
+      <c r="B465">
+        <v>199461</v>
+      </c>
+      <c r="C465">
+        <v>110809</v>
+      </c>
+      <c r="D465">
+        <v>17072</v>
+      </c>
+      <c r="E465">
+        <v>62193</v>
+      </c>
+      <c r="F465">
+        <v>9387</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
+++ b/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
   <si>
     <t>Serie</t>
   </si>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F465"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11072,19 +11075,39 @@
         <v>469</v>
       </c>
       <c r="B465">
-        <v>199461</v>
+        <v>199569</v>
       </c>
       <c r="C465">
-        <v>110809</v>
+        <v>110898</v>
       </c>
       <c r="D465">
-        <v>17072</v>
+        <v>17068</v>
       </c>
       <c r="E465">
         <v>62193</v>
       </c>
       <c r="F465">
-        <v>9387</v>
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>470</v>
+      </c>
+      <c r="B466">
+        <v>202359</v>
+      </c>
+      <c r="C466">
+        <v>112623</v>
+      </c>
+      <c r="D466">
+        <v>17083</v>
+      </c>
+      <c r="E466">
+        <v>62871</v>
+      </c>
+      <c r="F466">
+        <v>9782</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
+++ b/5/2/Colocaciones por tipo de deudor - saldos 1983 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
   <si>
     <t>Serie</t>
   </si>
@@ -1427,6 +1427,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11095,19 +11098,39 @@
         <v>470</v>
       </c>
       <c r="B466">
-        <v>202359</v>
+        <v>202338</v>
       </c>
       <c r="C466">
-        <v>112623</v>
+        <v>112568</v>
       </c>
       <c r="D466">
-        <v>17083</v>
+        <v>17085</v>
       </c>
       <c r="E466">
         <v>62871</v>
       </c>
       <c r="F466">
-        <v>9782</v>
+        <v>9813</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>471</v>
+      </c>
+      <c r="B467">
+        <v>204836</v>
+      </c>
+      <c r="C467">
+        <v>113725</v>
+      </c>
+      <c r="D467">
+        <v>17222</v>
+      </c>
+      <c r="E467">
+        <v>63737</v>
+      </c>
+      <c r="F467">
+        <v>10151</v>
       </c>
     </row>
   </sheetData>
